--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97DD352-4B13-427F-A314-30FD3FB81094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090236F0-00C0-4945-A7D2-F1E20B17AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackDamage+10,defenseArmor*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attackDamage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -520,6 +516,10 @@
   </si>
   <si>
     <t>最大法力值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDamage - 10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,10 +1315,10 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1341,157 +1341,157 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090236F0-00C0-4945-A7D2-F1E20B17AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D5023-5816-4A1C-A8C3-4A161CC412AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="2835" windowWidth="26295" windowHeight="19365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackDamage - 10</t>
+    <t>attackDamage + -10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D5023-5816-4A1C-A8C3-4A161CC412AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7B49C-1C44-4646-B1F7-CA2D28E4F324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="2835" windowWidth="26295" windowHeight="19365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackDamage + -10</t>
+    <t>attackDamage - 10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7B49C-1C44-4646-B1F7-CA2D28E4F324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013CBBE-42CA-40A2-81B8-1A38AABD64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>名字</t>
   </si>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>defenseArmor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,10 +367,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attackSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,10 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dodgeChange</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -403,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>manaRegeneration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>takeDamageMultiple</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -435,14 +419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>curMana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>护甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +427,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,10 +447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法力恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成的伤害倍率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -507,19 +475,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前法力值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackDamage - 10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1274,7 @@
         <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1340,14 +1296,11 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
       <c r="I4" t="s">
         <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1355,7 +1308,7 @@
         <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,7 +1316,7 @@
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1371,7 +1324,7 @@
         <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1379,7 +1332,7 @@
         <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1387,7 +1340,7 @@
         <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1395,103 +1348,63 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013CBBE-42CA-40A2-81B8-1A38AABD64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC6543-B174-4B3D-959D-44A8767ECD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>骑士羁绊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,Enemy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -476,6 +472,10 @@
   </si>
   <si>
     <t>最大生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1073,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,10 +1271,10 @@
         <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1297,114 +1297,114 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC6543-B174-4B3D-959D-44A8767ECD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C41F5E-2709-437A-87F2-2DA70EE61089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="186">
   <si>
     <t>名字</t>
   </si>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{int buff_ID, string targetType}[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffActiveMode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,9 +160,6 @@
   </si>
   <si>
     <t>AfterAttack</t>
-  </si>
-  <si>
-    <t>AfterAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -347,22 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defenseArmor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,10 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>healthRegeneration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>takeDamageMultiple</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,30 +372,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>waterDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lightingDefenseRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>soilDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>curHealth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,10 +392,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生命恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成的伤害倍率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,32 +400,356 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>土属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>动力失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宕机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型防御1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型防御2</t>
+  </si>
+  <si>
+    <t>重型防御3</t>
+  </si>
+  <si>
+    <t>maxArmor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机体值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供电力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDefenseRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDefenseRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDefenseRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 20,maxHealth + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 50,maxHealth + 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 80,maxHealth + 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美进化1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美进化2</t>
+  </si>
+  <si>
+    <t>完美进化3</t>
+  </si>
+  <si>
+    <t>maxMana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量穿透1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量穿透2</t>
+  </si>
+  <si>
+    <t>能量穿透3</t>
+  </si>
+  <si>
+    <t>fireDamage + 3,iceDamage + 3,lightingDamage + 3,acidDamage + 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 8,iceDamage + 8,lightingDamage + 8,acidDamage + 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage + 14,iceDamage + 14,lightingDamage + 14,acidDamage + 14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力压制1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力压制2</t>
+  </si>
+  <si>
+    <t>火力压制3</t>
+  </si>
+  <si>
+    <t>旧世造物1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧世造物2</t>
+  </si>
+  <si>
+    <t>旧世造物3</t>
+  </si>
+  <si>
+    <t>dodgeChange + 0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodgeChange + 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodgeChange + 0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critChange + 0.1,critMultiple + 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critChange + 0.15,critMultiple + 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critChange + 0.2,critMultiple + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 30,manaRegeneration + 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 60,manaRegeneration + 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 100,manaRegeneration + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复型材料1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复型材料2</t>
+  </si>
+  <si>
+    <t>修复型材料3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeHit</t>
+  </si>
+  <si>
+    <t>applyDamageMultiple - 0.2,armorRegeneration + 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple - 0.3,armorRegeneration + 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple - 0.4,armorRegeneration + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int buff_ID,float odds,string targetType}[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0.3,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,0.4,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,0.5,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelayDecr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelayDecr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速反应1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速反应2</t>
+  </si>
+  <si>
+    <t>快速反应3</t>
+  </si>
+  <si>
+    <t>moveSpeed + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed + 2</t>
+  </si>
+  <si>
+    <t>moveSpeed + 3</t>
   </si>
 </sst>
 </file>
@@ -514,7 +787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,6 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -833,62 +1113,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="27.25" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
-    <col min="17" max="17" width="9.875" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="33.375" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -896,8 +1180,9 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,33 +1190,35 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -939,8 +1226,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -948,19 +1236,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -972,213 +1260,999 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
-      <formula1>$M$4:$M$9</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8 H10:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+      <formula1>$N$4:$N$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
-      <formula1>$O$4:$O$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I10:I1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
+      <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
-      <formula1>$Q$4:$Q$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
+      <formula1>$R$4:$R$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,14 +2262,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="7" max="7" width="89.125" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
@@ -1203,22 +2278,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1228,22 +2303,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1268,13 +2343,13 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1296,115 +2371,728 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
+      <c r="J19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
+      <c r="J20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I7" t="s">
+      <c r="J29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" t="s">
-        <v>111</v>
+      <c r="J31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C41F5E-2709-437A-87F2-2DA70EE61089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CDC77-FBF3-42AF-BB8F-08A34E3966F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="223">
   <si>
     <t>名字</t>
   </si>
@@ -348,14 +348,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dodgeChange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critChange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>critMultiple</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,22 +360,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fireDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -428,16 +408,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重型防御1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重型防御2</t>
-  </si>
-  <si>
-    <t>重型防御3</t>
-  </si>
-  <si>
     <t>maxArmor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -514,10 +484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>physicalDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物理属性伤害减免</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -526,10 +492,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iceDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冻属性伤害减免</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,10 +500,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>acidDefenseRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>酸蚀属性伤害减免</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,16 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完美进化1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美进化2</t>
-  </si>
-  <si>
-    <t>完美进化3</t>
-  </si>
-  <si>
     <t>maxMana</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,16 +532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>能量穿透1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量穿透2</t>
-  </si>
-  <si>
-    <t>能量穿透3</t>
-  </si>
-  <si>
     <t>fireDamage + 3,iceDamage + 3,lightingDamage + 3,acidDamage + 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,50 +544,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火力压制1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火力压制2</t>
-  </si>
-  <si>
-    <t>火力压制3</t>
-  </si>
-  <si>
-    <t>旧世造物1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧世造物2</t>
-  </si>
-  <si>
-    <t>旧世造物3</t>
-  </si>
-  <si>
-    <t>dodgeChange + 0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dodgeChange + 0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dodgeChange + 0.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critChange + 0.1,critMultiple + 0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critChange + 0.15,critMultiple + 0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critChange + 0.2,critMultiple + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>maxMana + 30,manaRegeneration + 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,17 +556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修复型材料1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复型材料2</t>
-  </si>
-  <si>
-    <t>修复型材料3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修复1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,18 +571,6 @@
     <t>BeforeHit</t>
   </si>
   <si>
-    <t>applyDamageMultiple - 0.2,armorRegeneration + 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple - 0.3,armorRegeneration + 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple - 0.4,armorRegeneration + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{int buff_ID,float odds,string targetType}[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -716,32 +587,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>castDelayDecr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelayDecr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速反应1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速反应2</t>
-  </si>
-  <si>
-    <t>快速反应3</t>
-  </si>
-  <si>
     <t>moveSpeed + 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -750,6 +595,289 @@
   </si>
   <si>
     <t>moveSpeed + 3</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>加速1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速2</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>AfterAttack</t>
+  </si>
+  <si>
+    <t>32,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三零重工1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三零重工2</t>
+  </si>
+  <si>
+    <t>三零重工3</t>
+  </si>
+  <si>
+    <t>海力克斯1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海力克斯2</t>
+  </si>
+  <si>
+    <t>海力克斯3</t>
+  </si>
+  <si>
+    <t>射线巫师1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线巫师2</t>
+  </si>
+  <si>
+    <t>射线巫师3</t>
+  </si>
+  <si>
+    <t>军用武装1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用武装2</t>
+  </si>
+  <si>
+    <t>军用武装3</t>
+  </si>
+  <si>
+    <t>松野会社1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松野会社2</t>
+  </si>
+  <si>
+    <t>松野会社3</t>
+  </si>
+  <si>
+    <t>新世纪材料1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世纪材料2</t>
+  </si>
+  <si>
+    <t>新世纪材料3</t>
+  </si>
+  <si>
+    <t>宇航协会1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇航协会2</t>
+  </si>
+  <si>
+    <t>宇航协会3</t>
+  </si>
+  <si>
+    <t>机械工程1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程2</t>
+  </si>
+  <si>
+    <t>光学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学2</t>
+  </si>
+  <si>
+    <t>BeforeAttack</t>
+  </si>
+  <si>
+    <t>熔融洞穿1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔融洞穿2</t>
+  </si>
+  <si>
+    <t>36,1,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,1,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子学2</t>
+  </si>
+  <si>
+    <t>1,0.3,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.2,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力学2</t>
+  </si>
+  <si>
+    <t>addRange + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange + 2</t>
+  </si>
+  <si>
+    <t>材料学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料学2</t>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * 0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamageApplyRate</t>
+  </si>
+  <si>
+    <t>fireDamageApplyRate</t>
+  </si>
+  <si>
+    <t>iceDamageApplyRate</t>
+  </si>
+  <si>
+    <t>lightingDamageApplyRate</t>
+  </si>
+  <si>
+    <t>acidDamageApplyRate</t>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.2,armorRegeneration + 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.3,armorRegeneration + 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.4,armorRegeneration + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange</t>
+  </si>
+  <si>
+    <t>nonCritChange * -0.1,critMultiple + 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange * -0.15,critMultiple + 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange * -0.2,critMultiple + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,10 +956,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1190,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1236,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1263,31 +1391,31 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1340,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1393,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1446,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1536,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1565,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1594,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1623,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1652,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1681,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1710,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1739,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1768,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -1797,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1826,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1855,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1884,7 +2012,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -1913,7 +2041,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -1942,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -1971,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -1986,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
         <v>42</v>
@@ -1995,7 +2123,7 @@
         <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2003,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2018,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
         <v>42</v>
@@ -2027,7 +2155,7 @@
         <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2035,7 +2163,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -2050,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
         <v>42</v>
@@ -2059,15 +2187,15 @@
         <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2092,11 +2220,11 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -2121,11 +2249,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -2154,7 +2282,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -2183,7 +2311,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -2207,12 +2335,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -2234,6 +2362,533 @@
       </c>
       <c r="J33" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2262,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2346,10 +3001,10 @@
         <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2375,7 +3030,7 @@
         <v>80</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2398,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2427,7 +3082,7 @@
         <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2450,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2476,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2506,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2535,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2564,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2589,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2618,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2647,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2676,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2701,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2759,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2788,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2817,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2842,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2871,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2900,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2929,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2958,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2987,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3012,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3041,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3070,29 +3725,359 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" s="1" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CDC77-FBF3-42AF-BB8F-08A34E3966F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A89E6-399A-400B-AE0A-A6567844C00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="-12600" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11606" xr2:uid="{51C51138-64AB-476B-85A5-19B0FC4B28FD}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
   <si>
     <t>名字</t>
   </si>
@@ -155,7 +156,771 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>BeforeHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击前触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击后触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterDuration</t>
+  </si>
+  <si>
+    <t>AfterDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间结束后消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时长叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数叠加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teammate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immovable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invincible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueChanges</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>critMultiple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDamageMultiple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击倍数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宕机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机体值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供电力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightingDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acidDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸蚀属性伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 30,manaRegeneration + 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeHit</t>
+  </si>
+  <si>
+    <t>{int buff_ID,float odds,string targetType}[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>三零重工1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三零重工2</t>
+  </si>
+  <si>
+    <t>三零重工3</t>
+  </si>
+  <si>
+    <t>海力克斯1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海力克斯2</t>
+  </si>
+  <si>
+    <t>海力克斯3</t>
+  </si>
+  <si>
+    <t>射线巫师1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线巫师2</t>
+  </si>
+  <si>
+    <t>射线巫师3</t>
+  </si>
+  <si>
+    <t>军用武装1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用武装2</t>
+  </si>
+  <si>
+    <t>军用武装3</t>
+  </si>
+  <si>
+    <t>新世纪材料1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世纪材料2</t>
+  </si>
+  <si>
+    <t>新世纪材料3</t>
+  </si>
+  <si>
+    <t>宇航协会1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇航协会2</t>
+  </si>
+  <si>
+    <t>宇航协会3</t>
+  </si>
+  <si>
+    <t>机械工程1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程2</t>
+  </si>
+  <si>
+    <t>光学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学2</t>
+  </si>
+  <si>
+    <t>电子学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子学2</t>
+  </si>
+  <si>
+    <t>人工智能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力学2</t>
+  </si>
+  <si>
+    <t>材料学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料学2</t>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay * -0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击命中率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.2,armorRegeneration + 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.3,armorRegeneration + 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple * -0.4,armorRegeneration + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange</t>
+  </si>
+  <si>
+    <t>nonCritChange * -0.1,critMultiple + 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange * -0.15,critMultiple + 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonCritChange * -0.2,critMultiple + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeCast</t>
+  </si>
+  <si>
+    <t>BeforeCast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterCast</t>
+  </si>
+  <si>
+    <t>AfterCast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法前触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法后触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterCrit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterDodge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击后触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避后触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 30,maxHealth + 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 60,maxHealth + 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxArmor + 120,maxHealth + 80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 50,manaRegeneration + 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMana + 80,manaRegeneration + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲和机体提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源学1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素伤害提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击后，有几率提升伤害抗性并增强恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害抗性并增强恢复</t>
+  </si>
+  <si>
+    <t>提升暴击几率和伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源和能源恢复提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage * 0.3,iceDamage * 0.3,lightingDamage * 0.3,acidDamage * 0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage * 0.5,iceDamage * 0.5,lightingDamage * 0.5,acidDamage * 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDamage * 0.8,iceDamage * 0.8,lightingDamage * 0.8,acidDamage * 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔减少施法延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少施法延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时有概率减少目标伤害抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少目标伤害抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时增加目标充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害抗性并增强恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源学2</t>
+  </si>
+  <si>
+    <t>枪械1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械2</t>
+  </si>
+  <si>
+    <t>战斗结束后恢复机体值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援机伤害增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击后增加物理伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterHit</t>
+  </si>
+  <si>
+    <t>反击1</t>
+  </si>
+  <si>
+    <t>反击2</t>
+  </si>
+  <si>
+    <t>反击3</t>
+  </si>
+  <si>
+    <t>松野会社-反击1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松野会社-反击2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松野会社-反击3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世纪材料-修复1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世纪材料-修复2</t>
+  </si>
+  <si>
+    <t>新世纪材料-修复3</t>
+  </si>
+  <si>
+    <t>机械工程-加速1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程-加速2</t>
+  </si>
+  <si>
+    <t>光学-熔融洞穿1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学-熔融洞穿2</t>
+  </si>
+  <si>
+    <t>电子学-电路干扰1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子学-电路干扰2</t>
+  </si>
+  <si>
     <t>BeforeAttack</t>
+  </si>
+  <si>
+    <t>BeforeAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -163,22 +928,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BeforeHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfterHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击前触发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,696 +936,162 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>受击前触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击后触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfterDuration</t>
-  </si>
-  <si>
-    <t>AfterDuration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间结束后消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover</t>
-  </si>
-  <si>
-    <t>Cover</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不叠加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时长叠加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>层数叠加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teammate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>immovable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disarm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invincible</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invisible</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴械</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉默</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueChanges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>critMultiple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeDamageMultiple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击倍数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害倍率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害倍率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力失效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宕机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器失效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机体值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能范围增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricPower</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供电力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armorRegeneration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理属性伤害增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧属性伤害增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻属性伤害增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lightingDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击属性伤害增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acidDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸蚀属性伤害增强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸蚀属性伤害减免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 20,maxHealth + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 50,maxHealth + 30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxArmor + 80,maxHealth + 50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manaRegeneration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 3,iceDamage + 3,lightingDamage + 3,acidDamage + 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 8,iceDamage + 8,lightingDamage + 8,acidDamage + 8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireDamage + 14,iceDamage + 14,lightingDamage + 14,acidDamage + 14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 30,manaRegeneration + 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 60,manaRegeneration + 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxMana + 100,manaRegeneration + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeforeHit</t>
-  </si>
-  <si>
-    <t>{int buff_ID,float odds,string targetType}[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,0.3,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,0.4,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,0.5,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed + 2</t>
-  </si>
-  <si>
-    <t>moveSpeed + 3</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>加速1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速2</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>AfterAttack</t>
-  </si>
-  <si>
-    <t>32,1,Self</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,1,Self</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三零重工1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三零重工2</t>
-  </si>
-  <si>
-    <t>三零重工3</t>
-  </si>
-  <si>
-    <t>海力克斯1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海力克斯2</t>
-  </si>
-  <si>
-    <t>海力克斯3</t>
-  </si>
-  <si>
-    <t>射线巫师1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>射线巫师2</t>
-  </si>
-  <si>
-    <t>射线巫师3</t>
-  </si>
-  <si>
-    <t>军用武装1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军用武装2</t>
-  </si>
-  <si>
-    <t>军用武装3</t>
-  </si>
-  <si>
-    <t>松野会社1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>松野会社2</t>
-  </si>
-  <si>
-    <t>松野会社3</t>
-  </si>
-  <si>
-    <t>新世纪材料1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新世纪材料2</t>
-  </si>
-  <si>
-    <t>新世纪材料3</t>
-  </si>
-  <si>
-    <t>宇航协会1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇航协会2</t>
-  </si>
-  <si>
-    <t>宇航协会3</t>
-  </si>
-  <si>
-    <t>机械工程1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械工程2</t>
-  </si>
-  <si>
-    <t>光学1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光学2</t>
-  </si>
-  <si>
-    <t>BeforeAttack</t>
-  </si>
-  <si>
-    <t>熔融洞穿1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔融洞穿2</t>
-  </si>
-  <si>
-    <t>36,1,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,1,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子学1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子学2</t>
-  </si>
-  <si>
-    <t>1,0.3,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0.2,Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricPower + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricPower + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力学1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力学2</t>
-  </si>
-  <si>
-    <t>addRange + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addRange + 2</t>
-  </si>
-  <si>
-    <t>材料学1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料学2</t>
-  </si>
-  <si>
-    <t>castDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay * -0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击命中率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * 0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * 0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * -0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * -0.4</t>
+    <t>AfterDodge</t>
+  </si>
+  <si>
+    <t>闪避提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松野会社-闪避1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松野会社-闪避2</t>
+  </si>
+  <si>
+    <t>松野会社-闪避3</t>
+  </si>
+  <si>
+    <t>30,0.3,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,0.4,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.5,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,1,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,1,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,0.2,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.3,Enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能有概率额外释放一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避后下一次攻击物理伤害增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次攻击物理伤害增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay + 0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay + 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤支援机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalDamage + 3</t>
+  </si>
+  <si>
+    <t>BeforeBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterBattle</t>
+  </si>
+  <si>
+    <t>AfterBattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗前触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗后触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1,Self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,1,Self</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>physicalDamageApplyRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>fireDamageApplyRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>iceDamageApplyRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lightingDamageApplyRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>acidDamageApplyRate</t>
-  </si>
-  <si>
-    <t>applyDamageMultiple * -0.2,armorRegeneration + 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * -0.3,armorRegeneration + 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyDamageMultiple * -0.4,armorRegeneration + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonCritChange</t>
-  </si>
-  <si>
-    <t>nonCritChange * -0.1,critMultiple + 0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonCritChange * -0.15,critMultiple + 0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonCritChange * -0.2,critMultiple + 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,38 +1456,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:H50"/>
+    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="33.375" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.35546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.35546875" customWidth="1"/>
+    <col min="14" max="14" width="12.35546875" customWidth="1"/>
+    <col min="15" max="15" width="11.2109375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18.75" customWidth="1"/>
-    <col min="18" max="18" width="9.875" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.25" customWidth="1"/>
+    <col min="20" max="20" width="11.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1310,7 +1529,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1356,7 +1575,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1391,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>25</v>
@@ -1410,12 +1629,12 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1433,42 +1652,42 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>58</v>
       </c>
-      <c r="U4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1486,42 +1705,42 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
       <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>55</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>59</v>
       </c>
-      <c r="U5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1539,42 +1758,42 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" t="s">
+        <v>180</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
-      </c>
       <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>52</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>56</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>60</v>
       </c>
-      <c r="U6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1592,36 +1811,36 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
         <v>53</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>57</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>61</v>
       </c>
-      <c r="U7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1639,32 +1858,35 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="N9" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1682,18 +1904,27 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1711,18 +1942,27 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1740,18 +1980,27 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1769,18 +2018,27 @@
         <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1798,18 +2056,27 @@
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1827,18 +2094,27 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>264</v>
+      </c>
+      <c r="O15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1856,18 +2132,21 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1885,18 +2164,21 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -1914,18 +2196,21 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1943,18 +2228,21 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1972,18 +2260,21 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -2001,18 +2292,21 @@
         <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -2030,18 +2324,24 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2059,18 +2359,24 @@
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2088,18 +2394,24 @@
         <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2114,24 +2426,27 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2146,24 +2461,27 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -2178,27 +2496,30 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2210,24 +2531,27 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2239,24 +2563,27 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2268,21 +2595,24 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -2297,21 +2627,27 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -2326,21 +2662,27 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -2355,118 +2697,159 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
         <v>29</v>
       </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
       </c>
       <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37">
         <v>-1</v>
       </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38">
         <v>-1</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" t="s">
-        <v>147</v>
-      </c>
-      <c r="J37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -2477,21 +2860,24 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -2506,149 +2892,129 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41">
         <v>-1</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>178</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>149</v>
-      </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>39</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>183</v>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
       </c>
       <c r="D44">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2660,24 +3026,24 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>186</v>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -2692,21 +3058,27 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>41</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>187</v>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>203</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -2721,24 +3093,30 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>42</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>190</v>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>204</v>
       </c>
       <c r="D47">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2753,21 +3131,24 @@
         <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>43</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>191</v>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
       </c>
       <c r="D48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2782,18 +3163,21 @@
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>194</v>
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2808,21 +3192,27 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>205</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2837,58 +3227,400 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="B54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="B58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>232</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2899,15 +3631,18 @@
     <mergeCell ref="T3:U3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8 H10:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
-      <formula1>$N$4:$N$9</formula1>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I10:I1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H63:H1048576 H1:H3" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+      <formula1>$N$4:$N$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
+      <formula1>$N$4:$N$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,68 +3652,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="89.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="5.640625" customWidth="1"/>
+    <col min="7" max="7" width="66.35546875" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2998,16 +3734,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3027,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3053,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3079,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3105,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3131,17 +3867,17 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3161,16 +3897,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3190,16 +3926,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3219,12 +3955,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3244,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3273,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3302,16 +4038,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3331,12 +4067,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3356,16 +4092,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3385,16 +4121,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3414,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3443,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3472,12 +4208,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3497,16 +4233,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3526,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3555,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3584,16 +4320,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3613,16 +4349,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3642,14 +4378,14 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3667,113 +4403,113 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>200</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3791,12 +4527,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3814,12 +4550,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3837,12 +4573,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -3860,12 +4596,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -3883,12 +4619,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -3906,12 +4642,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -3929,155 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>44</v>
-      </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>45</v>
-      </c>
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4091,8 +4679,9 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883A89E6-399A-400B-AE0A-A6567844C00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5260EAF-D157-4735-818F-652CCF8F625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="-12600" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11606" xr2:uid="{51C51138-64AB-476B-85A5-19B0FC4B28FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4425" yWindow="4680" windowWidth="36030" windowHeight="17325" xr2:uid="{51C51138-64AB-476B-85A5-19B0FC4B28FD}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
     <sheet name="ModifyAttributeBuffData" sheetId="2" r:id="rId2"/>
     <sheet name="MovementBuffData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1465,27 +1465,27 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.35546875" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="33.35546875" customWidth="1"/>
-    <col min="14" max="14" width="12.35546875" customWidth="1"/>
-    <col min="15" max="15" width="11.2109375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="33.375" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="9.875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.2109375" customWidth="1"/>
+    <col min="20" max="20" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
         <v>234</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>39</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>42</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>43</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>56</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>57</v>
       </c>
@@ -3655,19 +3655,19 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.640625" customWidth="1"/>
-    <col min="7" max="7" width="66.35546875" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.35546875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="66.375" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3873,11 +3873,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>32</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" s="1" t="s">
         <v>276</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>39</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>42</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>43</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>46</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>47</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>56</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>57</v>
       </c>
@@ -4681,7 +4681,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5260EAF-D157-4735-818F-652CCF8F625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B0FE3-178B-4B93-8B3C-D51F70821284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView minimized="1" xWindow="4425" yWindow="4680" windowWidth="36030" windowHeight="17325" xr2:uid="{51C51138-64AB-476B-85A5-19B0FC4B28FD}"/>
+    <workbookView minimized="1" xWindow="5565" yWindow="3315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="287">
   <si>
     <t>名字</t>
   </si>
@@ -1092,6 +1091,39 @@
   </si>
   <si>
     <t>acidDamageApplyRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗加成1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加伤害,减少受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗加成2</t>
+  </si>
+  <si>
+    <t>战斗加成3</t>
+  </si>
+  <si>
+    <t>战斗加成4</t>
+  </si>
+  <si>
+    <t>takeDamageMultiple * 0.03,applyDamageMultiple * -0.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDamageMultiple * 0.05,applyDamageMultiple * -0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDamageMultiple * 0.08,applyDamageMultiple * -0.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDamageMultiple * 0.12,applyDamageMultiple * -0.12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1456,13 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3623,6 +3652,137 @@
         <v>38</v>
       </c>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="N3:O3"/>
@@ -3638,10 +3798,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H63:H1048576 H1:H3" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H69:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62 H64:H68" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
       <formula1>$N$4:$N$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -3652,12 +3812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4668,6 +4827,98 @@
         <v>261</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>58</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>59</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>61</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,7 +4930,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B0FE3-178B-4B93-8B3C-D51F70821284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34148C8F-13CA-4687-AA95-FE95B7EB7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5565" yWindow="3315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28890" yWindow="15210" windowWidth="28710" windowHeight="7305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="302">
   <si>
     <t>名字</t>
   </si>
@@ -1124,6 +1124,66 @@
   </si>
   <si>
     <t>takeDamageMultiple * 0.12,applyDamageMultiple * -0.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加移速,减少受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * 0.3,applyDamageMultiple * -0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复能量值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级能源回收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级紧急修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围幽魂立场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitRate * -0.25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,10 +1548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1565,7 @@
     <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="12" width="33.375" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
     <col min="14" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
@@ -3782,6 +3843,230 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2003</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2004</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2005</v>
+      </c>
+      <c r="B75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2006</v>
+      </c>
+      <c r="B76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2007</v>
+      </c>
+      <c r="B77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3812,10 +4097,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4917,6 +5203,167 @@
       </c>
       <c r="G44" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2001</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2002</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2003</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2005</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2006</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2007</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34148C8F-13CA-4687-AA95-FE95B7EB7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B9764-BD58-46D0-9820-D4CE83DDE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="15210" windowWidth="28710" windowHeight="7305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
     <sheet name="ModifyAttributeBuffData" sheetId="2" r:id="rId2"/>
     <sheet name="MovementBuffData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="351">
   <si>
     <t>名字</t>
   </si>
@@ -1127,22 +1127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>紧急修复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复护甲值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加移速,减少受到的伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>moveSpeed * 0.3,applyDamageMultiple * -0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1151,39 +1135,240 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>armorRegeneration + 40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源回收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复能量值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>manaRegeneration + 50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高级能源回收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>armorRegeneration + 60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高级紧急修复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围幽魂立场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitRate * -0.25</t>
+    <t>紧急修复 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复少量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复 Lvl.2</t>
+  </si>
+  <si>
+    <t>回复中量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复大量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复少量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复中量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复大量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复 Lvl.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.2</t>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.3</t>
+  </si>
+  <si>
+    <t>修复 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 Lvl.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 Lvl.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复少量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复中量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复大量护甲值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复少量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复中量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓慢回复大量能源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围修复 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围修复 Lvl.2</t>
+  </si>
+  <si>
+    <t>范围修复 Lvl.3</t>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.2</t>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.3</t>
+  </si>
+  <si>
+    <t>armorRegeneration + 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorRegeneration + 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration + 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺 Lvl.2</t>
+  </si>
+  <si>
+    <t>冲刺 Lvl.3</t>
+  </si>
+  <si>
+    <t>增加少量移速,减少受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加中量移速,减少受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加大量移速,减少受到的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * 0.2,applyDamageMultiple * -0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * 0.5,applyDamageMultiple * -0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载 lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载 lvl.2</t>
+  </si>
+  <si>
+    <t>过载 lvl.3</t>
+  </si>
+  <si>
+    <t>减少少量施法延迟和充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少中量施法延迟和充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少大量施法延迟和充能延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1548,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3846,13 +4031,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2001</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3878,16 +4063,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2002</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3910,16 +4095,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2003</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3942,13 +4127,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2004</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3974,13 +4159,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2005</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4006,19 +4191,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2006</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4038,13 +4223,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2007</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -4066,6 +4251,550 @@
       </c>
       <c r="J77" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>311</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>190</v>
+      </c>
+      <c r="B81" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" t="s">
+        <v>337</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>201</v>
+      </c>
+      <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" t="s">
+        <v>345</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93">
+        <v>-1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>203</v>
+      </c>
+      <c r="B94" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94">
+        <v>-1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4077,13 +4806,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I10:I1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I100:I1048576 I10:I94" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J100:J1048576 J10:J94" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H69:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H100:H1048576 H69:H94" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62 H64:H68" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
@@ -4097,11 +4826,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5207,7 +5936,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2001</v>
+        <v>180</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -5225,12 +5954,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2002</v>
+        <v>181</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
@@ -5248,12 +5977,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2003</v>
+        <v>182</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -5271,12 +6000,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2004</v>
+        <v>183</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -5294,12 +6023,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2005</v>
+        <v>184</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -5317,12 +6046,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2006</v>
+        <v>185</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
@@ -5340,12 +6069,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2007</v>
+        <v>186</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -5363,7 +6092,398 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>187</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>189</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>190</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>191</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>192</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>193</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>194</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>195</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>196</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>197</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>198</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>199</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>200</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>201</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>202</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>203</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B9764-BD58-46D0-9820-D4CE83DDE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D86BC3-BBD8-46CE-9BC6-83D84255F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
     <sheet name="ModifyAttributeBuffData" sheetId="2" r:id="rId2"/>
     <sheet name="MovementBuffData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="358">
   <si>
     <t>名字</t>
   </si>
@@ -1360,15 +1360,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>castDelay - 0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay - 1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay - 1.7</t>
+    <t>寒冰护盾-减速 Lvl.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰护盾-减速 Lvl.2</t>
+  </si>
+  <si>
+    <t>寒冰护盾-减速 Lvl.3</t>
+  </si>
+  <si>
+    <t>减少移动速度并增加施法延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 0.8,chargingDelay * -0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 1.2,chargingDelay * -0,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay - 1.7,chargingDelay * -0,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * -0.2,castDelay * 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * -0.3,castDelay * 0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * -0.4,castDelay * 0.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1733,17 +1759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
@@ -4797,6 +4823,102 @@
         <v>46</v>
       </c>
     </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" t="s">
+        <v>351</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" t="s">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="N3:O3"/>
@@ -4806,13 +4928,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I100:I1048576 I10:I94" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I100:I1048576 I10:I97" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J100:J1048576 J10:J94" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J100:J1048576 J10:J97" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H100:H1048576 H69:H94" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H100:H1048576 H69:H97" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62 H64:H68" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
@@ -4826,11 +4948,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6437,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -6460,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -6483,7 +6605,76 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>204</v>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>205</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>206</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D86BC3-BBD8-46CE-9BC6-83D84255F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4DAB6-3740-4B9A-9D2C-6BB5A9417E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="372">
   <si>
     <t>名字</t>
   </si>
@@ -1395,6 +1395,62 @@
   </si>
   <si>
     <t>moveSpeed * -0.4,castDelay * 0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒受到伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少伤害抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒减少能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaRegeneration - 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyDamageMultiple + 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed * -0.1,castDelay * 0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurnBuffBehaviour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrosionBuffBehaviour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreezeBuffBehaviour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortCircuitBuffBehaviour</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1759,11 +1815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4887,7 +4943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>206</v>
       </c>
@@ -4917,6 +4973,146 @@
       </c>
       <c r="J97" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>123</v>
+      </c>
+      <c r="I99" t="s">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+      <c r="K99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>302</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>303</v>
+      </c>
+      <c r="B101" t="s">
+        <v>361</v>
+      </c>
+      <c r="C101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>123</v>
+      </c>
+      <c r="I101" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" t="s">
+        <v>125</v>
+      </c>
+      <c r="K101" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>304</v>
+      </c>
+      <c r="B102" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" t="s">
+        <v>363</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s">
+        <v>125</v>
+      </c>
+      <c r="K102" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4928,13 +5124,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I100:I1048576 I10:I97" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I10:I97 I99:I1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J100:J1048576 J10:J97" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J97 J99:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H100:H1048576 H69:H97" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H69:H97 H99:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62 H64:H68" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
@@ -4948,11 +5144,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:A73"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C79:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6675,6 +6871,75 @@
       </c>
       <c r="G73" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>302</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>303</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>304</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4DAB6-3740-4B9A-9D2C-6BB5A9417E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7F19A-C797-4142-B14C-195B032B01D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="376">
   <si>
     <t>名字</t>
   </si>
@@ -1451,6 +1451,20 @@
   </si>
   <si>
     <t>ShortCircuitBuffBehaviour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复机体</t>
+  </si>
+  <si>
+    <t>维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>armorRegeneration + 18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1815,11 +1829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4975,56 +4989,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>301</v>
-      </c>
-      <c r="B99" t="s">
-        <v>358</v>
-      </c>
-      <c r="C99" t="s">
-        <v>359</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
         <v>123</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I98" t="s">
         <v>42</v>
       </c>
-      <c r="J99" t="s">
-        <v>125</v>
-      </c>
-      <c r="K99" t="s">
-        <v>368</v>
+      <c r="J98" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D100">
         <v>8</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -5033,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I100" t="s">
         <v>42</v>
@@ -5042,24 +5053,24 @@
         <v>125</v>
       </c>
       <c r="K100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C101" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D101">
         <v>8</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -5068,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
         <v>42</v>
@@ -5077,24 +5088,24 @@
         <v>125</v>
       </c>
       <c r="K101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C102" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D102">
         <v>8</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -5103,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I102" t="s">
         <v>42</v>
@@ -5112,6 +5123,41 @@
         <v>125</v>
       </c>
       <c r="K102" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>304</v>
+      </c>
+      <c r="B103" t="s">
+        <v>362</v>
+      </c>
+      <c r="C103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" t="s">
+        <v>125</v>
+      </c>
+      <c r="K103" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5124,13 +5170,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I10:I97 I99:I1048576" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I8 I100:I1048576 I10:I98" xr:uid="{D850C112-E61B-4530-91C2-68AB6E29169A}">
       <formula1>$P$4:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J10:J97 J99:J1048576" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J8 J100:J1048576 J10:J98" xr:uid="{F1DAD845-0C84-456B-9A7A-F182CD4C6190}">
       <formula1>$R$4:$R$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H69:H97 H99:H1048576" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H3 H63 H100:H1048576 H69:H98" xr:uid="{31A098FA-DAA0-47A5-99A7-B2DCFEB44480}">
       <formula1>$N$4:$N$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H62 H64:H68" xr:uid="{7F816E01-1353-44F8-AB6E-A2E0433AB2F6}">
@@ -5144,11 +5190,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692C92-F8E4-41C2-9605-0C19DFBBFB45}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C79:C80"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6873,32 +6919,32 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>302</v>
-      </c>
-      <c r="B75" t="b">
-        <v>0</v>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>367</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>207</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -6916,29 +6962,52 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
+        <v>303</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>304</v>
       </c>
-      <c r="B77" t="b">
-        <v>0</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
         <v>366</v>
       </c>
     </row>

--- a/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/BuffConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7F19A-C797-4142-B14C-195B032B01D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07C0E8-18BC-45DF-BCC8-0CBB48717F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6435" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40275" yWindow="-1035" windowWidth="28800" windowHeight="27285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseBuffData" sheetId="1" r:id="rId1"/>
@@ -1464,7 +1464,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>armorRegeneration + 18</t>
+    <t>armorRegeneration + 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1832,8 +1832,8 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
         <v>42</v>
@@ -5193,8 +5193,8 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
